--- a/Kintone_原料在庫管理.xlsx
+++ b/Kintone_原料在庫管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yusuke\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3D7A31-28AD-42CB-8839-A35F588748CE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910B4C6C-424C-49BE-AC2A-36348D5232FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15540" yWindow="2685" windowWidth="13125" windowHeight="8895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28290" yWindow="1440" windowWidth="20310" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原料コードマスター" sheetId="11" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="494">
   <si>
     <t>北岛分</t>
   </si>
@@ -1707,7 +1707,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>S</t>
     </r>
@@ -1721,7 +1720,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>S</t>
     </r>
@@ -1747,7 +1745,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>L</t>
     </r>
@@ -1761,7 +1758,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t/>
     </r>
@@ -2044,7 +2040,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>真鲐鱼</t>
     </r>
@@ -2053,7 +2048,6 @@
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>（マサバ）</t>
     </r>
@@ -2090,7 +2084,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>00/500</t>
     </r>
@@ -2108,7 +2101,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>201</t>
     </r>
@@ -2116,7 +2108,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>8</t>
     </r>
@@ -2124,7 +2115,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -2132,7 +2122,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>1.15</t>
     </r>
@@ -2159,7 +2148,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>00/400</t>
     </r>
@@ -2180,7 +2168,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>鲅鱼</t>
     </r>
@@ -2189,7 +2176,6 @@
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>（サワラ）</t>
     </r>
@@ -2199,7 +2185,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>3</t>
     </r>
@@ -2207,7 +2192,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>50/500</t>
     </r>
@@ -2220,7 +2204,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>5</t>
     </r>
@@ -2228,7 +2211,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>00/750</t>
     </r>
@@ -2618,6 +2600,138 @@
       </rPr>
       <t>（サワラ）</t>
     </r>
+  </si>
+  <si>
+    <t>原料名</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>日本語</t>
+    <rPh sb="0" eb="3">
+      <t>ニホンゴ</t>
+    </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>中国語</t>
+    <rPh sb="0" eb="3">
+      <t>チュウゴクゴ</t>
+    </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>ベトナム語</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>キンメダイ</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>ホッケ</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>メルルーサ</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>アラスカ赤魚</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>アジ</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>黒ムツ</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>シイラ</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>シルバー</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>サケ</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>助宗タラ</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>太刀魚</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>ブリ</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>メヌケ</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>ホキ</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>メバル</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>シロイトダラ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>マサバ</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>サバ</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>サワラ</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>白カレイ</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>ナメタカレイ</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>マダラ</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>サンマ</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>アジ</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ナイルパーチ</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>大西洋赤魚</t>
+    <rPh sb="0" eb="3">
+      <t>タイセイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="26"/>
   </si>
 </sst>
 </file>
@@ -2750,29 +2864,24 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -6157,15 +6266,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="5" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="6" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="7" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6184,6 +6284,15 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="5" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="6" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="7" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2393">
     <cellStyle name="桁区切り" xfId="21" builtinId="6"/>
@@ -8880,243 +8989,388 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E66A3A-559D-4403-8DED-874C89CA21BE}">
-  <dimension ref="A1:B27"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="101" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.25" style="101" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="101"/>
+    <col min="1" max="1" width="11.625" style="98" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="98" customWidth="1"/>
+    <col min="3" max="3" width="21.75" style="98" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="98"/>
+    <col min="5" max="5" width="10.5" style="98" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="105" t="s">
         <v>456</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="99" t="s">
+        <v>464</v>
+      </c>
+      <c r="C1" s="105" t="s">
+        <v>465</v>
+      </c>
+      <c r="D1" s="105" t="s">
+        <v>466</v>
+      </c>
+      <c r="E1" s="105" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="105">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="108">
-        <v>1</v>
-      </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="100" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="108">
+      <c r="C2" s="100" t="s">
+        <v>487</v>
+      </c>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="105">
         <v>2</v>
       </c>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="101" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="108">
+      <c r="C3" s="101" t="s">
+        <v>468</v>
+      </c>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="105">
         <v>3</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="101" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="108">
+      <c r="C4" s="101" t="s">
+        <v>469</v>
+      </c>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="105">
         <v>4</v>
       </c>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="101" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="108">
+      <c r="C5" s="101" t="s">
+        <v>470</v>
+      </c>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="105">
         <v>5</v>
       </c>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="100" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="108">
+      <c r="C6" s="100" t="s">
+        <v>471</v>
+      </c>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="105">
         <v>6</v>
       </c>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="100" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="108">
+      <c r="C7" s="100" t="s">
+        <v>493</v>
+      </c>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="105">
         <v>7</v>
       </c>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="100" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="108">
+      <c r="C8" s="100" t="s">
+        <v>472</v>
+      </c>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="105">
         <v>8</v>
       </c>
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="101" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="108">
+      <c r="C9" s="101" t="s">
+        <v>488</v>
+      </c>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="105">
         <v>9</v>
       </c>
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="101" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="108">
+      <c r="C10" s="101" t="s">
+        <v>473</v>
+      </c>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="105">
         <v>10</v>
       </c>
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="101" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="108">
+      <c r="C11" s="101" t="s">
+        <v>474</v>
+      </c>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="105">
         <v>11</v>
       </c>
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="100" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="108">
+      <c r="C12" s="100" t="s">
+        <v>475</v>
+      </c>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="105">
         <v>12</v>
       </c>
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="101" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="108">
+      <c r="C13" s="101" t="s">
+        <v>476</v>
+      </c>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="105">
         <v>13</v>
       </c>
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="100" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="108">
+      <c r="C14" s="100" t="s">
+        <v>477</v>
+      </c>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="105">
         <v>14</v>
       </c>
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="100" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="108">
+      <c r="C15" s="100" t="s">
+        <v>478</v>
+      </c>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="105">
         <v>15</v>
       </c>
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="100" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="108">
+      <c r="C16" s="100" t="s">
+        <v>479</v>
+      </c>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="105">
         <v>16</v>
       </c>
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="100" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="108">
+      <c r="C17" s="100" t="s">
+        <v>489</v>
+      </c>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="105">
         <v>17</v>
       </c>
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="101" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="108">
+      <c r="C18" s="101" t="s">
+        <v>490</v>
+      </c>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="105">
         <v>18</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="101" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="108">
+      <c r="C19" s="101" t="s">
+        <v>491</v>
+      </c>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="105">
         <v>19</v>
       </c>
-      <c r="B20" s="103" t="s">
+      <c r="B20" s="100" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="108">
+      <c r="C20" s="100" t="s">
+        <v>492</v>
+      </c>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="105">
         <v>20</v>
       </c>
-      <c r="B21" s="104" t="s">
+      <c r="B21" s="101" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="108">
+      <c r="C21" s="101" t="s">
+        <v>480</v>
+      </c>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="105">
         <v>21</v>
       </c>
-      <c r="B22" s="105" t="s">
+      <c r="B22" s="102" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="108">
+      <c r="C22" s="102" t="s">
+        <v>481</v>
+      </c>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="105">
         <v>22</v>
       </c>
-      <c r="B23" s="106" t="s">
+      <c r="B23" s="103" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="108">
+      <c r="C23" s="103" t="s">
+        <v>482</v>
+      </c>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="105">
         <v>23</v>
       </c>
-      <c r="B24" s="107" t="s">
+      <c r="B24" s="104" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="108">
+      <c r="C24" s="104" t="s">
+        <v>483</v>
+      </c>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="105">
         <v>24</v>
       </c>
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="100" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="108">
+      <c r="C25" s="100" t="s">
+        <v>484</v>
+      </c>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="105">
         <v>25</v>
       </c>
-      <c r="B26" s="103" t="s">
+      <c r="B26" s="100" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="108">
+      <c r="C26" s="100" t="s">
+        <v>485</v>
+      </c>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="105">
         <v>26</v>
       </c>
-      <c r="B27" s="103" t="s">
+      <c r="B27" s="100" t="s">
         <v>463</v>
       </c>
+      <c r="C27" s="100" t="s">
+        <v>486</v>
+      </c>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
     </row>
   </sheetData>
   <phoneticPr fontId="26"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P228"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
@@ -17008,7 +17262,7 @@
         <f>H224-K224-L224</f>
         <v>0</v>
       </c>
-      <c r="N224" s="98" t="s">
+      <c r="N224" s="106" t="s">
         <v>444</v>
       </c>
     </row>
@@ -17043,7 +17297,7 @@
         <f>H225-K225-L225</f>
         <v>35000</v>
       </c>
-      <c r="N225" s="99"/>
+      <c r="N225" s="107"/>
     </row>
     <row r="226" spans="1:14">
       <c r="A226" s="15" t="s">
@@ -17076,7 +17330,7 @@
         <f>H226-K226-L226</f>
         <v>0</v>
       </c>
-      <c r="N226" s="100"/>
+      <c r="N226" s="108"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="15" t="s">
@@ -17152,6 +17406,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BDCC36-C277-4962-AE80-30B22A9597C7}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17160,37 +17415,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="101" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="101"/>
+    <col min="1" max="1" width="18.375" style="98" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="98"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="98" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="98" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="98" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="98" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="98" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="98" t="s">
         <v>452</v>
       </c>
     </row>
@@ -17202,6 +17457,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F24571-69D8-41DF-AEC1-5692B7B7373C}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17210,27 +17466,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="101" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="101"/>
+    <col min="1" max="1" width="18.375" style="98" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="98"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="98" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="98" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="98" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="98" t="s">
         <v>452</v>
       </c>
     </row>
@@ -17242,6 +17498,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">

--- a/Kintone_原料在庫管理.xlsx
+++ b/Kintone_原料在庫管理.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yusuke\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yusuke\Desktop\KintoneApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910B4C6C-424C-49BE-AC2A-36348D5232FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CB2631-1F60-425C-BB28-BA82F388C162}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28290" yWindow="1440" windowWidth="20310" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="521">
   <si>
     <t>北岛分</t>
   </si>
@@ -2733,6 +2733,417 @@
     </rPh>
     <phoneticPr fontId="26"/>
   </si>
+  <si>
+    <t>赤魚（ノルウェー)</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <r>
+      <t>真</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鳕</t>
+    </r>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>赤魚</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>银鲛</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>鲐鱼</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>鲅鱼</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <r>
+      <t>灰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鲽</t>
+    </r>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <r>
+      <t>秋刀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鱼</t>
+    </r>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <r>
+      <t>竹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>荚鱼</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鲈鱼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>片</t>
+    </r>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <r>
+      <t>黑岩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鱼</t>
+    </r>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>尾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鳕</t>
+    </r>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <r>
+      <t>目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张鱼</t>
+    </r>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>青</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鳕鱼</t>
+    </r>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <r>
+      <t>真</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鲐鱼</t>
+    </r>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <r>
+      <t>白</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鲽</t>
+    </r>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <r>
+      <t>金目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鲷</t>
+    </r>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <r>
+      <t>黄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鲐</t>
+    </r>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <r>
+      <t>狗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鳕</t>
+    </r>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <r>
+      <t>赤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鱼</t>
+    </r>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <r>
+      <t>竹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夹鱼</t>
+    </r>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <r>
+      <t>天竺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鲷</t>
+    </r>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <r>
+      <t>鬼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>头</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>刀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鱼</t>
+    </r>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <r>
+      <t>秋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鲑</t>
+    </r>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <r>
+      <t>狭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鳕</t>
+    </r>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <r>
+      <t>太刀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鱼</t>
+    </r>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <r>
+      <t>黄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鲛</t>
+    </r>
+    <phoneticPr fontId="26"/>
+  </si>
 </sst>
 </file>
 
@@ -2746,7 +3157,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -2932,6 +3343,19 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -6055,7 +6479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -6293,6 +6717,11 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="7" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="1" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2393">
     <cellStyle name="桁区切り" xfId="21" builtinId="6"/>
@@ -8993,7 +9422,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9023,7 +9452,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="17.25">
       <c r="A2" s="105">
         <v>1</v>
       </c>
@@ -9033,10 +9462,12 @@
       <c r="C2" s="100" t="s">
         <v>487</v>
       </c>
-      <c r="D2" s="105"/>
+      <c r="D2" s="105" t="s">
+        <v>509</v>
+      </c>
       <c r="E2" s="105"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="17.25">
       <c r="A3" s="105">
         <v>2</v>
       </c>
@@ -9046,10 +9477,12 @@
       <c r="C3" s="101" t="s">
         <v>468</v>
       </c>
-      <c r="D3" s="105"/>
+      <c r="D3" s="105" t="s">
+        <v>510</v>
+      </c>
       <c r="E3" s="105"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="17.25">
       <c r="A4" s="105">
         <v>3</v>
       </c>
@@ -9059,10 +9492,12 @@
       <c r="C4" s="101" t="s">
         <v>469</v>
       </c>
-      <c r="D4" s="105"/>
+      <c r="D4" s="105" t="s">
+        <v>511</v>
+      </c>
       <c r="E4" s="105"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="17.25">
       <c r="A5" s="105">
         <v>4</v>
       </c>
@@ -9072,10 +9507,12 @@
       <c r="C5" s="101" t="s">
         <v>470</v>
       </c>
-      <c r="D5" s="105"/>
+      <c r="D5" s="105" t="s">
+        <v>512</v>
+      </c>
       <c r="E5" s="105"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="17.25">
       <c r="A6" s="105">
         <v>5</v>
       </c>
@@ -9085,7 +9522,9 @@
       <c r="C6" s="100" t="s">
         <v>471</v>
       </c>
-      <c r="D6" s="105"/>
+      <c r="D6" s="105" t="s">
+        <v>513</v>
+      </c>
       <c r="E6" s="105"/>
     </row>
     <row r="7" spans="1:5">
@@ -9093,15 +9532,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="100" t="s">
-        <v>34</v>
+        <v>494</v>
       </c>
       <c r="C7" s="100" t="s">
         <v>493</v>
       </c>
-      <c r="D7" s="105"/>
+      <c r="D7" s="105" t="s">
+        <v>496</v>
+      </c>
       <c r="E7" s="105"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="17.25">
       <c r="A8" s="105">
         <v>7</v>
       </c>
@@ -9111,10 +9552,12 @@
       <c r="C8" s="100" t="s">
         <v>472</v>
       </c>
-      <c r="D8" s="105"/>
+      <c r="D8" s="105" t="s">
+        <v>514</v>
+      </c>
       <c r="E8" s="105"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="17.25">
       <c r="A9" s="105">
         <v>8</v>
       </c>
@@ -9124,10 +9567,12 @@
       <c r="C9" s="101" t="s">
         <v>488</v>
       </c>
-      <c r="D9" s="105"/>
+      <c r="D9" s="101" t="s">
+        <v>500</v>
+      </c>
       <c r="E9" s="105"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="17.25">
       <c r="A10" s="105">
         <v>9</v>
       </c>
@@ -9137,10 +9582,12 @@
       <c r="C10" s="101" t="s">
         <v>473</v>
       </c>
-      <c r="D10" s="105"/>
+      <c r="D10" s="105" t="s">
+        <v>515</v>
+      </c>
       <c r="E10" s="105"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="17.25">
       <c r="A11" s="105">
         <v>10</v>
       </c>
@@ -9150,10 +9597,12 @@
       <c r="C11" s="101" t="s">
         <v>474</v>
       </c>
-      <c r="D11" s="105"/>
+      <c r="D11" s="105" t="s">
+        <v>516</v>
+      </c>
       <c r="E11" s="105"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="17.25">
       <c r="A12" s="105">
         <v>11</v>
       </c>
@@ -9163,10 +9612,12 @@
       <c r="C12" s="100" t="s">
         <v>475</v>
       </c>
-      <c r="D12" s="105"/>
+      <c r="D12" s="111" t="s">
+        <v>497</v>
+      </c>
       <c r="E12" s="105"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="17.25">
       <c r="A13" s="105">
         <v>12</v>
       </c>
@@ -9176,10 +9627,12 @@
       <c r="C13" s="101" t="s">
         <v>476</v>
       </c>
-      <c r="D13" s="105"/>
+      <c r="D13" s="105" t="s">
+        <v>517</v>
+      </c>
       <c r="E13" s="105"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="17.25">
       <c r="A14" s="105">
         <v>13</v>
       </c>
@@ -9189,10 +9642,12 @@
       <c r="C14" s="100" t="s">
         <v>477</v>
       </c>
-      <c r="D14" s="105"/>
+      <c r="D14" s="105" t="s">
+        <v>518</v>
+      </c>
       <c r="E14" s="105"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="17.25">
       <c r="A15" s="105">
         <v>14</v>
       </c>
@@ -9202,10 +9657,12 @@
       <c r="C15" s="100" t="s">
         <v>478</v>
       </c>
-      <c r="D15" s="105"/>
+      <c r="D15" s="105" t="s">
+        <v>519</v>
+      </c>
       <c r="E15" s="105"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="17.25">
       <c r="A16" s="105">
         <v>15</v>
       </c>
@@ -9215,10 +9672,12 @@
       <c r="C16" s="100" t="s">
         <v>479</v>
       </c>
-      <c r="D16" s="105"/>
+      <c r="D16" s="105" t="s">
+        <v>520</v>
+      </c>
       <c r="E16" s="105"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="17.25">
       <c r="A17" s="105">
         <v>16</v>
       </c>
@@ -9228,10 +9687,12 @@
       <c r="C17" s="100" t="s">
         <v>489</v>
       </c>
-      <c r="D17" s="105"/>
+      <c r="D17" s="100" t="s">
+        <v>495</v>
+      </c>
       <c r="E17" s="105"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="17.25">
       <c r="A18" s="105">
         <v>17</v>
       </c>
@@ -9241,10 +9702,12 @@
       <c r="C18" s="101" t="s">
         <v>490</v>
       </c>
-      <c r="D18" s="105"/>
+      <c r="D18" s="101" t="s">
+        <v>501</v>
+      </c>
       <c r="E18" s="105"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="17.25">
       <c r="A19" s="105">
         <v>18</v>
       </c>
@@ -9254,10 +9717,12 @@
       <c r="C19" s="101" t="s">
         <v>491</v>
       </c>
-      <c r="D19" s="105"/>
+      <c r="D19" s="101" t="s">
+        <v>502</v>
+      </c>
       <c r="E19" s="105"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="17.25">
       <c r="A20" s="105">
         <v>19</v>
       </c>
@@ -9267,10 +9732,12 @@
       <c r="C20" s="100" t="s">
         <v>492</v>
       </c>
-      <c r="D20" s="105"/>
+      <c r="D20" s="109" t="s">
+        <v>503</v>
+      </c>
       <c r="E20" s="105"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="17.25">
       <c r="A21" s="105">
         <v>20</v>
       </c>
@@ -9280,10 +9747,12 @@
       <c r="C21" s="101" t="s">
         <v>480</v>
       </c>
-      <c r="D21" s="105"/>
+      <c r="D21" s="105" t="s">
+        <v>504</v>
+      </c>
       <c r="E21" s="105"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="17.25">
       <c r="A22" s="105">
         <v>21</v>
       </c>
@@ -9293,10 +9762,12 @@
       <c r="C22" s="102" t="s">
         <v>481</v>
       </c>
-      <c r="D22" s="105"/>
+      <c r="D22" s="105" t="s">
+        <v>505</v>
+      </c>
       <c r="E22" s="105"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="17.25">
       <c r="A23" s="105">
         <v>22</v>
       </c>
@@ -9306,10 +9777,12 @@
       <c r="C23" s="103" t="s">
         <v>482</v>
       </c>
-      <c r="D23" s="105"/>
+      <c r="D23" s="105" t="s">
+        <v>506</v>
+      </c>
       <c r="E23" s="105"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="17.25">
       <c r="A24" s="105">
         <v>23</v>
       </c>
@@ -9319,10 +9792,12 @@
       <c r="C24" s="104" t="s">
         <v>483</v>
       </c>
-      <c r="D24" s="105"/>
+      <c r="D24" s="110" t="s">
+        <v>507</v>
+      </c>
       <c r="E24" s="105"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="17.25">
       <c r="A25" s="105">
         <v>24</v>
       </c>
@@ -9332,10 +9807,12 @@
       <c r="C25" s="100" t="s">
         <v>484</v>
       </c>
-      <c r="D25" s="105"/>
+      <c r="D25" s="105" t="s">
+        <v>508</v>
+      </c>
       <c r="E25" s="105"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="17.25">
       <c r="A26" s="105">
         <v>25</v>
       </c>
@@ -9345,10 +9822,12 @@
       <c r="C26" s="100" t="s">
         <v>485</v>
       </c>
-      <c r="D26" s="105"/>
+      <c r="D26" s="111" t="s">
+        <v>498</v>
+      </c>
       <c r="E26" s="105"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="17.25">
       <c r="A27" s="105">
         <v>26</v>
       </c>
@@ -9358,7 +9837,9 @@
       <c r="C27" s="100" t="s">
         <v>486</v>
       </c>
-      <c r="D27" s="105"/>
+      <c r="D27" s="111" t="s">
+        <v>499</v>
+      </c>
       <c r="E27" s="105"/>
     </row>
   </sheetData>
